--- a/Outputs/5. Budget constrained/Summary.xlsx
+++ b/Outputs/5. Budget constrained/Summary.xlsx
@@ -7,14 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="400000" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="420000" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="750000" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1000000" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1250000" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1500000" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="420000" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="750000" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1000000" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1250000" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1500000" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1750000" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2000000" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1750000" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -795,31 +794,31 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.00390625</v>
+        <v>0.01171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.02732086181640625</v>
+        <v>0.03508758544921875</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.05059827864170074</v>
+        <v>0.05928749032318592</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.07373930435278453</v>
+        <v>0.08430177871468914</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1044132160375284</v>
+        <v>0.1110692470242567</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1272389198498085</v>
+        <v>0.1376537345934268</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1574948657884819</v>
+        <v>0.1640564922671045</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1800095443092525</v>
+        <v>0.1902787623394974</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2117184494590292</v>
+        <v>0.2200422095087201</v>
       </c>
     </row>
     <row r="4">
@@ -1049,31 +1048,31 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AG5" t="n">
-        <v>2273983.018827073</v>
+        <v>2257265.998431836</v>
       </c>
       <c r="AH5" t="n">
-        <v>2272473.591486879</v>
+        <v>2257568.316874682</v>
       </c>
       <c r="AI5" t="n">
-        <v>2280202.44525369</v>
+        <v>2260733.156230067</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2294265.224769317</v>
+        <v>2265478.752397848</v>
       </c>
       <c r="AK5" t="n">
-        <v>2263020.752309276</v>
+        <v>2260610.016827459</v>
       </c>
       <c r="AL5" t="n">
-        <v>2284381.290375362</v>
+        <v>2257970.544937205</v>
       </c>
       <c r="AM5" t="n">
-        <v>2259314.805186547</v>
+        <v>2257437.594527262</v>
       </c>
       <c r="AN5" t="n">
-        <v>2284265.727877698</v>
+        <v>2259812.616626713</v>
       </c>
       <c r="AO5" t="n">
-        <v>2261987.842997383</v>
+        <v>2259599.170220375</v>
       </c>
     </row>
   </sheetData>
@@ -1441,40 +1440,25 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>0.0078125</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.0312042236328125</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.05639677494764328</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0078125</v>
+        <v>0.08142941260666703</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0312042236328125</v>
+        <v>0.1082165162314261</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.05445888638496399</v>
+        <v>0.140521359602552</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08528342633508146</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.1082212187588993</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.1310246100552339</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.1631401284287989</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.1856217292387864</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.2191465382591486</v>
+        <v>0.1782115807001833</v>
       </c>
     </row>
     <row r="4">
@@ -1588,21 +1572,6 @@
       <c r="AJ4" t="n">
         <v>2256480.816954877</v>
       </c>
-      <c r="AK4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2256480.816954877</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1695,40 +1664,25 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AD5" t="n">
-        <v>2256480.816954877</v>
+        <v>2257331.728706212</v>
       </c>
       <c r="AE5" t="n">
-        <v>2256480.816954877</v>
+        <v>2265180.176994884</v>
       </c>
       <c r="AF5" t="n">
-        <v>2256480.816954877</v>
+        <v>2260726.993502067</v>
       </c>
       <c r="AG5" t="n">
-        <v>2286111.181895799</v>
+        <v>2257366.195988331</v>
       </c>
       <c r="AH5" t="n">
-        <v>2284415.104780947</v>
+        <v>2263177.900397633</v>
       </c>
       <c r="AI5" t="n">
-        <v>2293484.405806023</v>
+        <v>2262034.253345273</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2259433.347497992</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2279207.333039881</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>2300556.478845294</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>2263549.761078849</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2288803.325926675</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2264694.326961209</v>
+        <v>2262225.705425692</v>
       </c>
     </row>
   </sheetData>
@@ -2096,25 +2050,19 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0078125</v>
+        <v>0.0244140625</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0312042236328125</v>
+        <v>0.05062031745910645</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.05445888638496399</v>
+        <v>0.08147484622895718</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.07757729134755209</v>
+        <v>0.1273950628747116</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1082212187588993</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.1405260230953733</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.1782161986510826</v>
+        <v>0.2068137188118513</v>
       </c>
     </row>
     <row r="4">
@@ -2222,12 +2170,6 @@
       <c r="AH4" t="n">
         <v>2256480.816954877</v>
       </c>
-      <c r="AI4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2256480.816954877</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2320,25 +2262,19 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AD5" t="n">
-        <v>2258617.049551942</v>
+        <v>2261233.432072029</v>
       </c>
       <c r="AE5" t="n">
-        <v>2266465.497840615</v>
+        <v>2261579.040591576</v>
       </c>
       <c r="AF5" t="n">
-        <v>2275250.222543942</v>
+        <v>2260115.813065389</v>
       </c>
       <c r="AG5" t="n">
-        <v>2284965.737667314</v>
+        <v>2265282.249353388</v>
       </c>
       <c r="AH5" t="n">
-        <v>2264585.9036683</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2263401.904096828</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>2263513.969866994</v>
+        <v>2260711.090874299</v>
       </c>
     </row>
   </sheetData>
@@ -2703,22 +2639,16 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.005859375</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0234375</v>
+        <v>0.03121280670166016</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0467376708984375</v>
+        <v>0.06221895664930344</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0814831405878067</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.1312299366545631</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.2067918519542786</v>
+        <v>0.1083648282510694</v>
       </c>
     </row>
     <row r="4">
@@ -2820,12 +2750,6 @@
       <c r="AF4" t="n">
         <v>2256480.816954877</v>
       </c>
-      <c r="AG4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2256480.816954877</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2915,22 +2839,16 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AC5" t="n">
-        <v>2256480.816954877</v>
+        <v>2258030.945718694</v>
       </c>
       <c r="AD5" t="n">
-        <v>2269126.53105967</v>
+        <v>2262966.197535913</v>
       </c>
       <c r="AE5" t="n">
-        <v>2288003.900496779</v>
+        <v>2265571.899149836</v>
       </c>
       <c r="AF5" t="n">
-        <v>2262033.745080881</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2257536.008654832</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2262815.704151749</v>
+        <v>2260092.778714491</v>
       </c>
     </row>
   </sheetData>
@@ -3295,16 +3213,16 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.00390625</v>
+        <v>0.005859375</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02732086181640625</v>
+        <v>0.03121280670166016</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.06223698705434799</v>
+        <v>0.06609472539275885</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1083826473623049</v>
+        <v>0.2197629001821042</v>
       </c>
     </row>
     <row r="4">
@@ -3495,16 +3413,16 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AC5" t="n">
-        <v>2272133.184115384</v>
+        <v>2258030.945718695</v>
       </c>
       <c r="AD5" t="n">
-        <v>2289549.639719027</v>
+        <v>2262966.197535911</v>
       </c>
       <c r="AE5" t="n">
-        <v>2267334.46037158</v>
+        <v>2260522.63207801</v>
       </c>
       <c r="AF5" t="n">
-        <v>2262697.99186253</v>
+        <v>2260024.360187677</v>
       </c>
     </row>
   </sheetData>
@@ -3869,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.00390625</v>
+        <v>0.005859375</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02732086181640625</v>
+        <v>0.03121280670166016</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.06611655652523041</v>
+        <v>0.06609472539275885</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2197838785359636</v>
+        <v>0.3119638050557114</v>
       </c>
     </row>
     <row r="4">
@@ -4069,16 +3987,16 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AC5" t="n">
-        <v>2272133.184115384</v>
+        <v>2258030.945718695</v>
       </c>
       <c r="AD5" t="n">
-        <v>2289549.639719028</v>
+        <v>2262966.197535911</v>
       </c>
       <c r="AE5" t="n">
-        <v>2262983.103059172</v>
+        <v>2260522.63207801</v>
       </c>
       <c r="AF5" t="n">
-        <v>2262360.462464099</v>
+        <v>2264852.703793232</v>
       </c>
     </row>
   </sheetData>
@@ -4443,16 +4361,16 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.00390625</v>
+        <v>0.005859375</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02732086181640625</v>
+        <v>0.03121280670166016</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.06611655652523041</v>
+        <v>0.06609472539275885</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3427177361445501</v>
+        <v>0.3119638050557114</v>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
@@ -4663,16 +4581,16 @@
         <v>2256480.816954877</v>
       </c>
       <c r="AC5" t="n">
-        <v>2272133.184115384</v>
+        <v>2258030.945718694</v>
       </c>
       <c r="AD5" t="n">
-        <v>2289549.639719028</v>
+        <v>2262966.19753591</v>
       </c>
       <c r="AE5" t="n">
-        <v>2262983.103059172</v>
+        <v>2260522.632078011</v>
       </c>
       <c r="AF5" t="n">
-        <v>2260326.331246543</v>
+        <v>2264852.703793231</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
@@ -4688,578 +4606,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AP5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Prices</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Feed-in Tariffs</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.00390625</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.02732086181640625</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.06611655652523041</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.3427177361445501</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Base NPV</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2256480.816954877</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>NPV</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2256480.816954877</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2272133.184115385</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2289549.639719027</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2262983.103059171</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2260326.331246543</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>